--- a/stock_historical_data/1wk/SIKA.BO.xlsx
+++ b/stock_historical_data/1wk/SIKA.BO.xlsx
@@ -59403,7 +59403,9 @@
       <c r="P1112" t="n">
         <v>0</v>
       </c>
-      <c r="Q1112" t="inlineStr"/>
+      <c r="Q1112" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SIKA.BO.xlsx
+++ b/stock_historical_data/1wk/SIKA.BO.xlsx
@@ -62797,7 +62797,9 @@
       <c r="Q1113" t="n">
         <v>0</v>
       </c>
-      <c r="R1113" t="inlineStr"/>
+      <c r="R1113" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SIKA.BO.xlsx
+++ b/stock_historical_data/1wk/SIKA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1113"/>
+  <dimension ref="A1:R1115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62801,6 +62801,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1114">
+      <c r="A1114" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>3224.25</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>3548</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>3126.050048828125</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>3418.199951171875</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>3418.199951171875</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>43046</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1114" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1114" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1114" t="inlineStr"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>3444.89990234375</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>3444.89990234375</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>3115</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>3243.699951171875</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>3243.699951171875</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>29255</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1115" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1115" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1115" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/SIKA.BO.xlsx
+++ b/stock_historical_data/1wk/SIKA.BO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1115"/>
+  <dimension ref="A1:R1124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62845,7 +62845,7 @@
         <v>25</v>
       </c>
       <c r="O1114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1114" t="n">
         <v>0</v>
@@ -62853,7 +62853,9 @@
       <c r="Q1114" t="n">
         <v>0</v>
       </c>
-      <c r="R1114" t="inlineStr"/>
+      <c r="R1114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1115">
       <c r="A1115" s="2" t="n">
@@ -62907,7 +62909,477 @@
       <c r="Q1115" t="n">
         <v>0</v>
       </c>
-      <c r="R1115" t="inlineStr"/>
+      <c r="R1115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>2620</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>2460</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>2590.39990234375</v>
+      </c>
+      <c r="F1116" t="inlineStr"/>
+      <c r="G1116" t="n">
+        <v>9553</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1116" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1116" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1116" t="inlineStr"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>2533.800048828125</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>2573.300048828125</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>2425</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>2447.85009765625</v>
+      </c>
+      <c r="F1117" t="inlineStr"/>
+      <c r="G1117" t="n">
+        <v>6670</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1117" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1117" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1117" t="inlineStr"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>2362.60009765625</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>2511.25</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>2253</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>2439.550048828125</v>
+      </c>
+      <c r="F1118" t="inlineStr"/>
+      <c r="G1118" t="n">
+        <v>8820</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1118" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1118" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1118" t="inlineStr"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>2400.10009765625</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>2524.800048828125</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>2211</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>2232.550048828125</v>
+      </c>
+      <c r="F1119" t="inlineStr"/>
+      <c r="G1119" t="n">
+        <v>7746</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1119" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1119" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1119" t="inlineStr"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>2255.10009765625</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>1999.800048828125</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>2236.64990234375</v>
+      </c>
+      <c r="F1120" t="inlineStr"/>
+      <c r="G1120" t="n">
+        <v>16405</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1120" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1120" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>2260</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>2584.39990234375</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>2240.050048828125</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>2460.5</v>
+      </c>
+      <c r="F1121" t="inlineStr"/>
+      <c r="G1121" t="n">
+        <v>30540</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1121" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1121" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>2450.050048828125</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>2586.449951171875</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>2292.300048828125</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>2314.35009765625</v>
+      </c>
+      <c r="F1122" t="inlineStr"/>
+      <c r="G1122" t="n">
+        <v>21844</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1122" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1122" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1122" t="inlineStr"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>2287</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>2647.35009765625</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>2152.300048828125</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>2546.449951171875</v>
+      </c>
+      <c r="F1123" t="inlineStr"/>
+      <c r="G1123" t="n">
+        <v>27632</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1123" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>2520</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>2660</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>2280</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>2313.449951171875</v>
+      </c>
+      <c r="F1124" t="inlineStr"/>
+      <c r="G1124" t="n">
+        <v>14589</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1124" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1124" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SIKA.BO.xlsx
+++ b/stock_historical_data/1wk/SIKA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1124"/>
+  <dimension ref="A1:R1159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62915,32 +62915,32 @@
     </row>
     <row r="1116">
       <c r="A1116" s="2" t="n">
-        <v>45656</v>
+        <v>45474</v>
       </c>
       <c r="B1116" t="n">
-        <v>2500</v>
+        <v>660</v>
       </c>
       <c r="C1116" t="n">
-        <v>2620</v>
+        <v>660</v>
       </c>
       <c r="D1116" t="n">
-        <v>2460</v>
+        <v>616</v>
       </c>
       <c r="E1116" t="n">
-        <v>2590.39990234375</v>
+        <v>630.7999877929688</v>
       </c>
       <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="n">
-        <v>9553</v>
+        <v>107625</v>
       </c>
       <c r="H1116" t="n">
         <v>2024</v>
       </c>
       <c r="I1116" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J1116" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K1116" t="n">
         <v>0</v>
@@ -62952,7 +62952,7 @@
         <v>0</v>
       </c>
       <c r="N1116" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="O1116" t="n">
         <v>0</v>
@@ -62967,32 +62967,32 @@
     </row>
     <row r="1117">
       <c r="A1117" s="2" t="n">
-        <v>45663</v>
+        <v>45481</v>
       </c>
       <c r="B1117" t="n">
-        <v>2533.800048828125</v>
+        <v>647.989990234375</v>
       </c>
       <c r="C1117" t="n">
-        <v>2573.300048828125</v>
+        <v>659.780029296875</v>
       </c>
       <c r="D1117" t="n">
-        <v>2425</v>
+        <v>580</v>
       </c>
       <c r="E1117" t="n">
-        <v>2447.85009765625</v>
+        <v>583.0700073242188</v>
       </c>
       <c r="F1117" t="inlineStr"/>
       <c r="G1117" t="n">
-        <v>6670</v>
+        <v>151825</v>
       </c>
       <c r="H1117" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I1117" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J1117" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K1117" t="n">
         <v>0</v>
@@ -63004,7 +63004,7 @@
         <v>0</v>
       </c>
       <c r="N1117" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="O1117" t="n">
         <v>0</v>
@@ -63019,32 +63019,32 @@
     </row>
     <row r="1118">
       <c r="A1118" s="2" t="n">
-        <v>45670</v>
+        <v>45488</v>
       </c>
       <c r="B1118" t="n">
-        <v>2362.60009765625</v>
+        <v>589.4000244140625</v>
       </c>
       <c r="C1118" t="n">
-        <v>2511.25</v>
+        <v>618.989990234375</v>
       </c>
       <c r="D1118" t="n">
-        <v>2253</v>
+        <v>555.7999877929688</v>
       </c>
       <c r="E1118" t="n">
-        <v>2439.550048828125</v>
+        <v>579.4400024414062</v>
       </c>
       <c r="F1118" t="inlineStr"/>
       <c r="G1118" t="n">
-        <v>8820</v>
+        <v>136785</v>
       </c>
       <c r="H1118" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I1118" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J1118" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K1118" t="n">
         <v>0</v>
@@ -63056,7 +63056,7 @@
         <v>0</v>
       </c>
       <c r="N1118" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="O1118" t="n">
         <v>0</v>
@@ -63071,32 +63071,32 @@
     </row>
     <row r="1119">
       <c r="A1119" s="2" t="n">
-        <v>45677</v>
+        <v>45495</v>
       </c>
       <c r="B1119" t="n">
-        <v>2400.10009765625</v>
+        <v>579</v>
       </c>
       <c r="C1119" t="n">
-        <v>2524.800048828125</v>
+        <v>579</v>
       </c>
       <c r="D1119" t="n">
-        <v>2211</v>
+        <v>525</v>
       </c>
       <c r="E1119" t="n">
-        <v>2232.550048828125</v>
+        <v>555.52001953125</v>
       </c>
       <c r="F1119" t="inlineStr"/>
       <c r="G1119" t="n">
-        <v>7746</v>
+        <v>109425</v>
       </c>
       <c r="H1119" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I1119" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J1119" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K1119" t="n">
         <v>0</v>
@@ -63108,10 +63108,10 @@
         <v>0</v>
       </c>
       <c r="N1119" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="O1119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1119" t="n">
         <v>0</v>
@@ -63123,32 +63123,32 @@
     </row>
     <row r="1120">
       <c r="A1120" s="2" t="n">
-        <v>45684</v>
+        <v>45502</v>
       </c>
       <c r="B1120" t="n">
-        <v>2200</v>
+        <v>570</v>
       </c>
       <c r="C1120" t="n">
-        <v>2255.10009765625</v>
+        <v>622.2000122070312</v>
       </c>
       <c r="D1120" t="n">
-        <v>1999.800048828125</v>
+        <v>549.0499877929688</v>
       </c>
       <c r="E1120" t="n">
-        <v>2236.64990234375</v>
+        <v>612.3400268554688</v>
       </c>
       <c r="F1120" t="inlineStr"/>
       <c r="G1120" t="n">
-        <v>16405</v>
+        <v>97305</v>
       </c>
       <c r="H1120" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I1120" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J1120" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1120" t="n">
         <v>0</v>
@@ -63160,7 +63160,7 @@
         <v>0</v>
       </c>
       <c r="N1120" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="O1120" t="n">
         <v>0</v>
@@ -63175,32 +63175,32 @@
     </row>
     <row r="1121">
       <c r="A1121" s="2" t="n">
-        <v>45691</v>
+        <v>45509</v>
       </c>
       <c r="B1121" t="n">
-        <v>2260</v>
+        <v>600</v>
       </c>
       <c r="C1121" t="n">
-        <v>2584.39990234375</v>
+        <v>620</v>
       </c>
       <c r="D1121" t="n">
-        <v>2240.050048828125</v>
+        <v>539</v>
       </c>
       <c r="E1121" t="n">
-        <v>2460.5</v>
+        <v>608.77001953125</v>
       </c>
       <c r="F1121" t="inlineStr"/>
       <c r="G1121" t="n">
-        <v>30540</v>
+        <v>103350</v>
       </c>
       <c r="H1121" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I1121" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J1121" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K1121" t="n">
         <v>0</v>
@@ -63212,7 +63212,7 @@
         <v>0</v>
       </c>
       <c r="N1121" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="O1121" t="n">
         <v>0</v>
@@ -63227,32 +63227,32 @@
     </row>
     <row r="1122">
       <c r="A1122" s="2" t="n">
-        <v>45698</v>
+        <v>45516</v>
       </c>
       <c r="B1122" t="n">
-        <v>2450.050048828125</v>
+        <v>608.5999755859375</v>
       </c>
       <c r="C1122" t="n">
-        <v>2586.449951171875</v>
+        <v>608.5999755859375</v>
       </c>
       <c r="D1122" t="n">
-        <v>2292.300048828125</v>
+        <v>546.1699829101562</v>
       </c>
       <c r="E1122" t="n">
-        <v>2314.35009765625</v>
+        <v>571.6599731445312</v>
       </c>
       <c r="F1122" t="inlineStr"/>
       <c r="G1122" t="n">
-        <v>21844</v>
+        <v>79075</v>
       </c>
       <c r="H1122" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I1122" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J1122" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K1122" t="n">
         <v>0</v>
@@ -63264,7 +63264,7 @@
         <v>0</v>
       </c>
       <c r="N1122" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="O1122" t="n">
         <v>0</v>
@@ -63279,32 +63279,32 @@
     </row>
     <row r="1123">
       <c r="A1123" s="2" t="n">
-        <v>45705</v>
+        <v>45523</v>
       </c>
       <c r="B1123" t="n">
-        <v>2287</v>
+        <v>578</v>
       </c>
       <c r="C1123" t="n">
-        <v>2647.35009765625</v>
+        <v>590</v>
       </c>
       <c r="D1123" t="n">
-        <v>2152.300048828125</v>
+        <v>532.1199951171875</v>
       </c>
       <c r="E1123" t="n">
-        <v>2546.449951171875</v>
+        <v>542.760009765625</v>
       </c>
       <c r="F1123" t="inlineStr"/>
       <c r="G1123" t="n">
-        <v>27632</v>
+        <v>99205</v>
       </c>
       <c r="H1123" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I1123" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J1123" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K1123" t="n">
         <v>0</v>
@@ -63316,7 +63316,7 @@
         <v>0</v>
       </c>
       <c r="N1123" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="O1123" t="n">
         <v>0</v>
@@ -63331,55 +63331,1893 @@
     </row>
     <row r="1124">
       <c r="A1124" s="2" t="n">
-        <v>45712</v>
+        <v>45530</v>
       </c>
       <c r="B1124" t="n">
-        <v>2520</v>
+        <v>549.2000122070312</v>
       </c>
       <c r="C1124" t="n">
-        <v>2660</v>
+        <v>557.7999877929688</v>
       </c>
       <c r="D1124" t="n">
-        <v>2280</v>
+        <v>530</v>
       </c>
       <c r="E1124" t="n">
-        <v>2313.449951171875</v>
+        <v>538.1799926757812</v>
       </c>
       <c r="F1124" t="inlineStr"/>
       <c r="G1124" t="n">
+        <v>74290</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1124" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1124" t="inlineStr"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>540.2000122070312</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>559.7999877929688</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>511.3599853515625</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>519.8400268554688</v>
+      </c>
+      <c r="F1125" t="inlineStr"/>
+      <c r="G1125" t="n">
+        <v>103050</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1125" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1125" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>519.8400268554688</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>544</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>510</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>524.6599731445312</v>
+      </c>
+      <c r="F1126" t="inlineStr"/>
+      <c r="G1126" t="n">
+        <v>56225</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1126" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>525.4199829101562</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>531.780029296875</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>476</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>505.8599853515625</v>
+      </c>
+      <c r="F1127" t="inlineStr"/>
+      <c r="G1127" t="n">
+        <v>92150</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1127" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1127" t="inlineStr"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>532</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>594</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>518</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>525.3499755859375</v>
+      </c>
+      <c r="F1128" t="inlineStr"/>
+      <c r="G1128" t="n">
+        <v>169375</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1128" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1128" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1128" t="inlineStr"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>539.780029296875</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>539.780029296875</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>510.0199890136719</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>520.8200073242188</v>
+      </c>
+      <c r="F1129" t="inlineStr"/>
+      <c r="G1129" t="n">
+        <v>64500</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1129" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1129" t="inlineStr"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>516.3200073242188</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>550</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>464.2000122070312</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>520.5900268554688</v>
+      </c>
+      <c r="F1130" t="inlineStr"/>
+      <c r="G1130" t="n">
+        <v>80570</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1130" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1130" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>531.3599853515625</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>546.72998046875</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>510.010009765625</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>519.0800170898438</v>
+      </c>
+      <c r="F1131" t="inlineStr"/>
+      <c r="G1131" t="n">
+        <v>49765</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1131" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1131" t="inlineStr"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>521.989990234375</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>468</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>484.8500061035156</v>
+      </c>
+      <c r="F1132" t="inlineStr"/>
+      <c r="G1132" t="n">
+        <v>40310</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1132" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1132" t="inlineStr"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>528</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>534.4000244140625</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>472.0199890136719</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>520.6500244140625</v>
+      </c>
+      <c r="F1133" t="inlineStr"/>
+      <c r="G1133" t="n">
+        <v>61380</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1133" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1133" t="inlineStr"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>530</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>538</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>502.2000122070312</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>510.9299926757812</v>
+      </c>
+      <c r="F1134" t="inlineStr"/>
+      <c r="G1134" t="n">
+        <v>62295</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1134" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1134" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1134" t="inlineStr"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>510.9299926757812</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>510.9299926757812</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>477.7999877929688</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>479.4800109863281</v>
+      </c>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="n">
+        <v>42045</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1135" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1135" t="inlineStr"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>486</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>501.989990234375</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>468</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>489.2300109863281</v>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="n">
+        <v>29420</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1136" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1136" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1136" t="inlineStr"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>497.7999877929688</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>519.6300048828125</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>468</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>504.6400146484375</v>
+      </c>
+      <c r="F1137" t="inlineStr"/>
+      <c r="G1137" t="n">
+        <v>36125</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1137" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1137" t="inlineStr"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>504.6000061035156</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>517.22998046875</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>500.3999938964844</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>509.489990234375</v>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="n">
+        <v>42845</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1138" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1138" t="inlineStr"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>505</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>594</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>500</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>537.7100219726562</v>
+      </c>
+      <c r="F1139" t="inlineStr"/>
+      <c r="G1139" t="n">
+        <v>226105</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1139" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1139" t="inlineStr"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>536.0399780273438</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>554.7899780273438</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>500.1000061035156</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>514.530029296875</v>
+      </c>
+      <c r="F1140" t="inlineStr"/>
+      <c r="G1140" t="n">
+        <v>50695</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1140" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1140" t="inlineStr"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>519.4099731445312</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>535.97998046875</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>455.8399963378906</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>500.739990234375</v>
+      </c>
+      <c r="F1141" t="inlineStr"/>
+      <c r="G1141" t="n">
+        <v>42535</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1141" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1141" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1141" t="inlineStr"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>2620</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>2460</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>2590.39990234375</v>
+      </c>
+      <c r="F1142" t="inlineStr"/>
+      <c r="G1142" t="n">
+        <v>9553</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>2533.800048828125</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>2573.300048828125</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>2425</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>2447.85009765625</v>
+      </c>
+      <c r="F1143" t="inlineStr"/>
+      <c r="G1143" t="n">
+        <v>6670</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>2362.60009765625</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>2511.25</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>2253</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>2439.550048828125</v>
+      </c>
+      <c r="F1144" t="inlineStr"/>
+      <c r="G1144" t="n">
+        <v>8820</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>2400.10009765625</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>2524.800048828125</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>2211</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>2232.550048828125</v>
+      </c>
+      <c r="F1145" t="inlineStr"/>
+      <c r="G1145" t="n">
+        <v>7746</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>2255.10009765625</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>1999.800048828125</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>2236.64990234375</v>
+      </c>
+      <c r="F1146" t="inlineStr"/>
+      <c r="G1146" t="n">
+        <v>16405</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>2260</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>2584.39990234375</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>2240.050048828125</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>2460.5</v>
+      </c>
+      <c r="F1147" t="inlineStr"/>
+      <c r="G1147" t="n">
+        <v>30540</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>2450.050048828125</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>2586.449951171875</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>2292.300048828125</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>2314.35009765625</v>
+      </c>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="n">
+        <v>21844</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>2287</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>2647.35009765625</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>2152.300048828125</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>2546.449951171875</v>
+      </c>
+      <c r="F1149" t="inlineStr"/>
+      <c r="G1149" t="n">
+        <v>27632</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>2520</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>2660</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>2280</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>2313.449951171875</v>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="n">
         <v>14589</v>
       </c>
-      <c r="H1124" t="n">
+      <c r="H1150" t="n">
         <v>2025</v>
       </c>
-      <c r="I1124" t="n">
+      <c r="I1150" t="n">
         <v>2</v>
       </c>
-      <c r="J1124" t="n">
+      <c r="J1150" t="n">
         <v>24</v>
       </c>
-      <c r="K1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="N1124" t="n">
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
         <v>9</v>
       </c>
-      <c r="O1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="P1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="R1124" t="inlineStr"/>
+      <c r="O1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>464</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>509.0199890136719</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>430.4599914550781</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>494.0299987792969</v>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="n">
+        <v>85195</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>499.75</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>509.7999877929688</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>487</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>494.3900146484375</v>
+      </c>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="n">
+        <v>71355</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>510</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>590</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>493</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>520.7999877929688</v>
+      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="n">
+        <v>107660</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>520.7999877929688</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>675</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>511</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>639.9500122070312</v>
+      </c>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="n">
+        <v>367688</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>649</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>672</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>604.2999877929688</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>632.5999755859375</v>
+      </c>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="n">
+        <v>145024</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>572</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>649.9500122070312</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>520.2999877929688</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>634.4500122070312</v>
+      </c>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="n">
+        <v>119044</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>658</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>670</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>634.2000122070312</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>74891</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>674</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>787.3499755859375</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>655.7000122070312</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>697.0499877929688</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>369376</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>680</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>752</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>659</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>677.9500122070312</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>184042</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
